--- a/Code/Results/Cases/Case_2_252/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_252/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.75108978865479</v>
+        <v>11.58445689323961</v>
       </c>
       <c r="C2">
-        <v>10.25414467113607</v>
+        <v>8.731790679769469</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.2358100928607</v>
+        <v>15.99471012893557</v>
       </c>
       <c r="F2">
-        <v>44.62743062133675</v>
+        <v>48.37297769984487</v>
       </c>
       <c r="G2">
-        <v>2.127873099636389</v>
+        <v>3.70816093265667</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.45643732224001</v>
+        <v>29.92422550733014</v>
       </c>
       <c r="J2">
-        <v>6.46030064923724</v>
+        <v>9.701107968281802</v>
       </c>
       <c r="K2">
-        <v>12.2224358613692</v>
+        <v>12.69504379280688</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.8514306020439</v>
+        <v>11.41120016731536</v>
       </c>
       <c r="C3">
-        <v>9.605287913944013</v>
+        <v>8.56328953881072</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.14686340081196</v>
+        <v>15.86921020823669</v>
       </c>
       <c r="F3">
-        <v>42.62390651123679</v>
+        <v>48.040296470916</v>
       </c>
       <c r="G3">
-        <v>2.136840490617917</v>
+        <v>3.711183923550451</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.97793680118968</v>
+        <v>29.85452460021247</v>
       </c>
       <c r="J3">
-        <v>6.446310691336059</v>
+        <v>9.712920972163992</v>
       </c>
       <c r="K3">
-        <v>11.36747504322801</v>
+        <v>12.58051747831464</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.26967941956803</v>
+        <v>11.30729525188269</v>
       </c>
       <c r="C4">
-        <v>9.193951184415749</v>
+        <v>8.460985712236932</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.44398794903064</v>
+        <v>15.79732570899698</v>
       </c>
       <c r="F4">
-        <v>41.38681571050693</v>
+        <v>47.84694589064705</v>
       </c>
       <c r="G4">
-        <v>2.142471085262141</v>
+        <v>3.713134755666194</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.69675749232037</v>
+        <v>29.81621066816179</v>
       </c>
       <c r="J4">
-        <v>6.440737037711093</v>
+        <v>9.721251046254118</v>
       </c>
       <c r="K4">
-        <v>10.81515572134305</v>
+        <v>12.51339139969444</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.025135173797</v>
+        <v>11.2656361037729</v>
       </c>
       <c r="C5">
-        <v>9.023162530506051</v>
+        <v>8.419648591502074</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.14881339285757</v>
+        <v>15.76936567731931</v>
       </c>
       <c r="F5">
-        <v>40.88146450045841</v>
+        <v>47.77095813298427</v>
       </c>
       <c r="G5">
-        <v>2.144798867221696</v>
+        <v>3.713953637623987</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.58527610738085</v>
+        <v>29.80172684131909</v>
       </c>
       <c r="J5">
-        <v>6.439192509563156</v>
+        <v>9.724916078445675</v>
       </c>
       <c r="K5">
-        <v>10.58310319848348</v>
+        <v>12.48686951535469</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.98407460710684</v>
+        <v>11.25876162616991</v>
       </c>
       <c r="C6">
-        <v>8.994615313070097</v>
+        <v>8.412807689028719</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.09926786233003</v>
+        <v>15.76480437647731</v>
       </c>
       <c r="F6">
-        <v>40.79749399976962</v>
+        <v>47.75851141044101</v>
       </c>
       <c r="G6">
-        <v>2.145187457190546</v>
+        <v>3.714091058559568</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.56694988554472</v>
+        <v>29.79939007176099</v>
       </c>
       <c r="J6">
-        <v>6.43897903621652</v>
+        <v>9.72554097951843</v>
       </c>
       <c r="K6">
-        <v>10.54414690738284</v>
+        <v>12.48251668824423</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.26641180094405</v>
+        <v>11.30673057781592</v>
       </c>
       <c r="C7">
-        <v>9.191660542946927</v>
+        <v>8.460426716492165</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.44004270792047</v>
+        <v>15.79694318985016</v>
       </c>
       <c r="F7">
-        <v>41.38000458875089</v>
+        <v>47.8459096653248</v>
       </c>
       <c r="G7">
-        <v>2.14250234137018</v>
+        <v>3.713145702500267</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.69524155416247</v>
+        <v>29.81601075919818</v>
       </c>
       <c r="J7">
-        <v>6.440713305853082</v>
+        <v>9.721299379519969</v>
       </c>
       <c r="K7">
-        <v>10.81205455604824</v>
+        <v>12.51303030771139</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.44692215850232</v>
+        <v>11.52424081902873</v>
       </c>
       <c r="C8">
-        <v>10.03314448068607</v>
+        <v>8.67348839155563</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.86736875465892</v>
+        <v>15.95038455344651</v>
       </c>
       <c r="F8">
-        <v>43.93832990744484</v>
+        <v>48.25604032582021</v>
       </c>
       <c r="G8">
-        <v>2.130940414005872</v>
+        <v>3.70918365735003</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.28878701792128</v>
+        <v>29.89926383937571</v>
       </c>
       <c r="J8">
-        <v>6.45483140212064</v>
+        <v>9.704957405539409</v>
       </c>
       <c r="K8">
-        <v>11.93326681099314</v>
+        <v>12.65491050506481</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.53348528905206</v>
+        <v>11.96771820340764</v>
       </c>
       <c r="C9">
-        <v>11.65532889794764</v>
+        <v>9.09779014578222</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>17.40101745492247</v>
+        <v>16.29076268597338</v>
       </c>
       <c r="F9">
-        <v>48.88297514613782</v>
+        <v>49.14410006780663</v>
       </c>
       <c r="G9">
-        <v>2.109160134947177</v>
+        <v>3.702161502955934</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>26.55626443196588</v>
+        <v>30.09795898660172</v>
       </c>
       <c r="J9">
-        <v>6.507950597561167</v>
+        <v>9.681469308408712</v>
       </c>
       <c r="K9">
-        <v>13.91939784331957</v>
+        <v>12.95710286530978</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.93399751797206</v>
+        <v>12.30023557975496</v>
       </c>
       <c r="C10">
-        <v>12.81551360424611</v>
+        <v>9.409957829674656</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>19.11060629089277</v>
+        <v>16.56264900599317</v>
       </c>
       <c r="F10">
-        <v>52.45658029081771</v>
+        <v>49.84354764463671</v>
       </c>
       <c r="G10">
-        <v>2.093554752625993</v>
+        <v>3.697452318191553</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>27.55581027059237</v>
+        <v>30.26531500407059</v>
       </c>
       <c r="J10">
-        <v>6.564694580413728</v>
+        <v>9.669449275485299</v>
       </c>
       <c r="K10">
-        <v>15.25593395731568</v>
+        <v>13.19180111940954</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.54400162628535</v>
+        <v>12.45219993935236</v>
       </c>
       <c r="C11">
-        <v>13.32497628337606</v>
+        <v>9.551354391617741</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19.85781675488911</v>
+        <v>16.69055414269653</v>
       </c>
       <c r="F11">
-        <v>54.06857583656041</v>
+        <v>50.17099476288347</v>
       </c>
       <c r="G11">
-        <v>2.086504362967509</v>
+        <v>3.695406493348822</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>28.02673328280731</v>
+        <v>30.34602272713071</v>
       </c>
       <c r="J11">
-        <v>6.594885767095955</v>
+        <v>9.665121853919846</v>
       </c>
       <c r="K11">
-        <v>15.83900761459264</v>
+        <v>13.30089293603792</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.77124791230753</v>
+        <v>12.50978397921362</v>
       </c>
       <c r="C12">
-        <v>13.5154055950741</v>
+        <v>9.604753897203635</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>20.13661021809078</v>
+        <v>16.73955026732317</v>
       </c>
       <c r="F12">
-        <v>54.67711520487689</v>
+        <v>50.29623770824637</v>
       </c>
       <c r="G12">
-        <v>2.083838041549439</v>
+        <v>3.694645563601406</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>28.20752855799903</v>
+        <v>30.37723520700087</v>
       </c>
       <c r="J12">
-        <v>6.606996145947108</v>
+        <v>9.663647429859941</v>
       </c>
       <c r="K12">
-        <v>16.05637315306464</v>
+        <v>13.34250070110444</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.72247059586973</v>
+        <v>12.49738148812144</v>
       </c>
       <c r="C13">
-        <v>13.47450166478849</v>
+        <v>9.593260646472645</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.07674816083254</v>
+        <v>16.72897385590066</v>
       </c>
       <c r="F13">
-        <v>54.5461368178335</v>
+        <v>50.26921039281871</v>
       </c>
       <c r="G13">
-        <v>2.084412185368956</v>
+        <v>3.694808831905656</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>28.16847893412312</v>
+        <v>30.37048425803694</v>
       </c>
       <c r="J13">
-        <v>6.604357009739482</v>
+        <v>9.66395766326295</v>
       </c>
       <c r="K13">
-        <v>16.00970963662319</v>
+        <v>13.33352711141948</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.56277155564246</v>
+        <v>12.45693699276394</v>
       </c>
       <c r="C14">
-        <v>13.34069210724996</v>
+        <v>9.555750807021933</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>19.88083522915013</v>
+        <v>16.69457410205575</v>
       </c>
       <c r="F14">
-        <v>54.11867770707091</v>
+        <v>50.18127411100688</v>
       </c>
       <c r="G14">
-        <v>2.086284954183549</v>
+        <v>3.695343615510815</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>28.04155711935006</v>
+        <v>30.34857761386995</v>
       </c>
       <c r="J14">
-        <v>6.595868223874414</v>
+        <v>9.664997258387084</v>
       </c>
       <c r="K14">
-        <v>15.85695826017852</v>
+        <v>13.30431029376815</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.46446766620938</v>
+        <v>12.43216676011639</v>
       </c>
       <c r="C15">
-        <v>13.25840971977168</v>
+        <v>9.532754524299733</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>19.76029841337501</v>
+        <v>16.67357496775398</v>
       </c>
       <c r="F15">
-        <v>53.85660509850184</v>
+        <v>50.12757023494878</v>
       </c>
       <c r="G15">
-        <v>2.087432425797455</v>
+        <v>3.695672977965943</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>27.96413951971149</v>
+        <v>30.3352435888915</v>
       </c>
       <c r="J15">
-        <v>6.590758344475202</v>
+        <v>9.665655441527029</v>
       </c>
       <c r="K15">
-        <v>15.76295148710292</v>
+        <v>13.28645171949062</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.89359934904481</v>
+        <v>12.29031308042531</v>
       </c>
       <c r="C16">
-        <v>12.78186204758231</v>
+        <v>9.400700054915836</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.06117950413495</v>
+        <v>16.55437116531906</v>
       </c>
       <c r="F16">
-        <v>52.3509614234875</v>
+        <v>49.82232730676699</v>
       </c>
       <c r="G16">
-        <v>2.094016201590978</v>
+        <v>3.697587950465808</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>27.52537170860982</v>
+        <v>30.26013200437575</v>
       </c>
       <c r="J16">
-        <v>6.562813627838454</v>
+        <v>9.6697550568885</v>
       </c>
       <c r="K16">
-        <v>15.21733986534695</v>
+        <v>13.18471532864474</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.53655067350143</v>
+        <v>12.20342497024725</v>
       </c>
       <c r="C17">
-        <v>12.48491869806127</v>
+        <v>9.319491520575736</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>18.62463623280246</v>
+        <v>16.48229260762448</v>
       </c>
       <c r="F17">
-        <v>51.42381493953624</v>
+        <v>49.63738293872189</v>
       </c>
       <c r="G17">
-        <v>2.098065227226453</v>
+        <v>3.698787356676981</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>27.26044508103645</v>
+        <v>30.21522034455111</v>
       </c>
       <c r="J17">
-        <v>6.546824694134592</v>
+        <v>9.672562359048227</v>
       </c>
       <c r="K17">
-        <v>14.87634494860332</v>
+        <v>13.12287262798243</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.32862571989452</v>
+        <v>12.15351878961106</v>
       </c>
       <c r="C18">
-        <v>12.31239161458879</v>
+        <v>9.272728310200193</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>18.37066334467413</v>
+        <v>16.44123521026151</v>
       </c>
       <c r="F18">
-        <v>50.88924742162128</v>
+        <v>49.53188524169911</v>
       </c>
       <c r="G18">
-        <v>2.100398922564094</v>
+        <v>3.699486302652583</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>27.10958411661848</v>
+        <v>30.18981965306665</v>
       </c>
       <c r="J18">
-        <v>6.538037260709056</v>
+        <v>9.674284384913246</v>
       </c>
       <c r="K18">
-        <v>14.67785784944155</v>
+        <v>13.0875235825348</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.25778195872032</v>
+        <v>12.13663528974866</v>
       </c>
       <c r="C19">
-        <v>12.25367531224782</v>
+        <v>9.256887549896328</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>18.2841705589301</v>
+        <v>16.42740401573034</v>
       </c>
       <c r="F19">
-        <v>50.7080289383102</v>
+        <v>49.49631882233048</v>
       </c>
       <c r="G19">
-        <v>2.101189996074848</v>
+        <v>3.69972451566795</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>27.05876218890118</v>
+        <v>30.18129371801826</v>
       </c>
       <c r="J19">
-        <v>6.535130831271907</v>
+        <v>9.6748858604409</v>
       </c>
       <c r="K19">
-        <v>14.61024451599259</v>
+        <v>13.07559413848924</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.57482304230315</v>
+        <v>12.21266761574241</v>
       </c>
       <c r="C20">
-        <v>12.51670724777528</v>
+        <v>9.328142336971611</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>18.67140401479956</v>
+        <v>16.48992439574187</v>
       </c>
       <c r="F20">
-        <v>51.52264538733612</v>
+        <v>49.65698039223665</v>
       </c>
       <c r="G20">
-        <v>2.097633728360525</v>
+        <v>3.698658738780071</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>27.28848899260675</v>
+        <v>30.21995668317189</v>
       </c>
       <c r="J20">
-        <v>6.548484080757663</v>
+        <v>9.672252405659727</v>
       </c>
       <c r="K20">
-        <v>14.91288720599804</v>
+        <v>13.12943326222466</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.60977953635154</v>
+        <v>12.46881596539654</v>
       </c>
       <c r="C21">
-        <v>13.38006166127863</v>
+        <v>9.566772709164438</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>19.93849055393099</v>
+        <v>16.70466328292047</v>
       </c>
       <c r="F21">
-        <v>54.24428284016268</v>
+        <v>50.20707001824958</v>
       </c>
       <c r="G21">
-        <v>2.085734811144974</v>
+        <v>3.695186163288532</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>28.07876898631407</v>
+        <v>30.35499454713426</v>
       </c>
       <c r="J21">
-        <v>6.598342790911047</v>
+        <v>9.664687443690314</v>
       </c>
       <c r="K21">
-        <v>15.90191689100317</v>
+        <v>13.31288421888686</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.2644104585549</v>
+        <v>12.63642026558999</v>
       </c>
       <c r="C22">
-        <v>13.92986212712291</v>
+        <v>9.721866162816802</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>20.74248733648579</v>
+        <v>16.84825694333314</v>
       </c>
       <c r="F22">
-        <v>56.01214841090892</v>
+        <v>50.57380532180167</v>
       </c>
       <c r="G22">
-        <v>2.077976704884425</v>
+        <v>3.692996914737528</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>28.60972370726882</v>
+        <v>30.44703524510128</v>
       </c>
       <c r="J22">
-        <v>6.634903636298333</v>
+        <v>9.660700937704211</v>
       </c>
       <c r="K22">
-        <v>16.52838400140999</v>
+        <v>13.43449404337552</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.9169612702154</v>
+        <v>12.54696878661717</v>
       </c>
       <c r="C23">
-        <v>13.63769376037982</v>
+        <v>9.639186982693838</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>20.31550448947532</v>
+        <v>16.77133638521775</v>
       </c>
       <c r="F23">
-        <v>55.06954339561774</v>
+        <v>50.37744032999862</v>
       </c>
       <c r="G23">
-        <v>2.08211691735654</v>
+        <v>3.694158039729279</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>28.32496877636075</v>
+        <v>30.39756785337361</v>
       </c>
       <c r="J23">
-        <v>6.615009646307668</v>
+        <v>9.662740906354831</v>
       </c>
       <c r="K23">
-        <v>16.19579506241412</v>
+        <v>13.36944418293611</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.55752837855216</v>
+        <v>12.20848886468819</v>
       </c>
       <c r="C24">
-        <v>12.50234129374324</v>
+        <v>9.324231533220747</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>18.65026965644043</v>
+        <v>16.48647287246037</v>
       </c>
       <c r="F24">
-        <v>51.47796893854137</v>
+        <v>49.6481177937566</v>
       </c>
       <c r="G24">
-        <v>2.097828790498319</v>
+        <v>3.698716857671328</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>27.27580583700971</v>
+        <v>30.21781407676746</v>
       </c>
       <c r="J24">
-        <v>6.547732614729347</v>
+        <v>9.672392198988264</v>
       </c>
       <c r="K24">
-        <v>14.89637407704751</v>
+        <v>13.12646655761805</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.99280057539934</v>
+        <v>11.84630858854182</v>
       </c>
       <c r="C25">
-        <v>11.21102407297936</v>
+        <v>8.982680518452542</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.74303861018364</v>
+        <v>16.19467997166484</v>
       </c>
       <c r="F25">
-        <v>47.55503365160044</v>
+        <v>48.89529168111864</v>
       </c>
       <c r="G25">
-        <v>2.114971068537177</v>
+        <v>3.703981752036057</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>26.20178773394118</v>
+        <v>30.04043266212584</v>
       </c>
       <c r="J25">
-        <v>6.49063790011949</v>
+        <v>9.686905138933277</v>
       </c>
       <c r="K25">
-        <v>13.40417221889989</v>
+        <v>12.87298136679454</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_252/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_252/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.58445689323961</v>
+        <v>12.75108978865466</v>
       </c>
       <c r="C2">
-        <v>8.731790679769469</v>
+        <v>10.25414467113606</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.99471012893557</v>
+        <v>15.23581009286051</v>
       </c>
       <c r="F2">
-        <v>48.37297769984487</v>
+        <v>44.627430621337</v>
       </c>
       <c r="G2">
-        <v>3.70816093265667</v>
+        <v>2.127873099636389</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>29.92422550733014</v>
+        <v>25.4564373222404</v>
       </c>
       <c r="J2">
-        <v>9.701107968281802</v>
+        <v>6.460300649237308</v>
       </c>
       <c r="K2">
-        <v>12.69504379280688</v>
+        <v>12.22243586136915</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.41120016731536</v>
+        <v>11.85143060204398</v>
       </c>
       <c r="C3">
-        <v>8.56328953881072</v>
+        <v>9.605287913944045</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.86921020823669</v>
+        <v>14.14686340081177</v>
       </c>
       <c r="F3">
-        <v>48.040296470916</v>
+        <v>42.6239065112369</v>
       </c>
       <c r="G3">
-        <v>3.711183923550451</v>
+        <v>2.136840490618051</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>29.85452460021247</v>
+        <v>24.97793680118951</v>
       </c>
       <c r="J3">
-        <v>9.712920972163992</v>
+        <v>6.446310691335984</v>
       </c>
       <c r="K3">
-        <v>12.58051747831464</v>
+        <v>11.36747504322802</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.30729525188269</v>
+        <v>11.26967941956798</v>
       </c>
       <c r="C4">
-        <v>8.460985712236932</v>
+        <v>9.193951184415731</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.79732570899698</v>
+        <v>13.44398794903065</v>
       </c>
       <c r="F4">
-        <v>47.84694589064705</v>
+        <v>41.38681571050708</v>
       </c>
       <c r="G4">
-        <v>3.713134755666194</v>
+        <v>2.142471085262273</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>29.81621066816179</v>
+        <v>24.69675749232055</v>
       </c>
       <c r="J4">
-        <v>9.721251046254118</v>
+        <v>6.440737037711141</v>
       </c>
       <c r="K4">
-        <v>12.51339139969444</v>
+        <v>10.81515572134298</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.2656361037729</v>
+        <v>11.02513517379702</v>
       </c>
       <c r="C5">
-        <v>8.419648591502074</v>
+        <v>9.023162530506061</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.76936567731931</v>
+        <v>13.14881339285742</v>
       </c>
       <c r="F5">
-        <v>47.77095813298427</v>
+        <v>40.88146450045851</v>
       </c>
       <c r="G5">
-        <v>3.713953637623987</v>
+        <v>2.144798867221961</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>29.80172684131909</v>
+        <v>24.58527610738079</v>
       </c>
       <c r="J5">
-        <v>9.724916078445675</v>
+        <v>6.439192509563234</v>
       </c>
       <c r="K5">
-        <v>12.48686951535469</v>
+        <v>10.58310319848348</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.25876162616991</v>
+        <v>10.98407460710692</v>
       </c>
       <c r="C6">
-        <v>8.412807689028719</v>
+        <v>8.99461531307008</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.76480437647731</v>
+        <v>13.09926786232976</v>
       </c>
       <c r="F6">
-        <v>47.75851141044101</v>
+        <v>40.79749399976964</v>
       </c>
       <c r="G6">
-        <v>3.714091058559568</v>
+        <v>2.145187457190414</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>29.79939007176099</v>
+        <v>24.56694988554449</v>
       </c>
       <c r="J6">
-        <v>9.72554097951843</v>
+        <v>6.438979036216562</v>
       </c>
       <c r="K6">
-        <v>12.48251668824423</v>
+        <v>10.54414690738293</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.30673057781592</v>
+        <v>11.26641180094399</v>
       </c>
       <c r="C7">
-        <v>8.460426716492165</v>
+        <v>9.191660542946893</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.79694318985016</v>
+        <v>13.44004270792033</v>
       </c>
       <c r="F7">
-        <v>47.8459096653248</v>
+        <v>41.38000458875117</v>
       </c>
       <c r="G7">
-        <v>3.713145702500267</v>
+        <v>2.142502341370047</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>29.81601075919818</v>
+        <v>24.69524155416283</v>
       </c>
       <c r="J7">
-        <v>9.721299379519969</v>
+        <v>6.4407133058532</v>
       </c>
       <c r="K7">
-        <v>12.51303030771139</v>
+        <v>10.81205455604822</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.52424081902873</v>
+        <v>12.44692215850241</v>
       </c>
       <c r="C8">
-        <v>8.67348839155563</v>
+        <v>10.03314448068605</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.95038455344651</v>
+        <v>14.86736875465876</v>
       </c>
       <c r="F8">
-        <v>48.25604032582021</v>
+        <v>43.9383299074449</v>
       </c>
       <c r="G8">
-        <v>3.70918365735003</v>
+        <v>2.130940414005744</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>29.89926383937571</v>
+        <v>25.28878701792116</v>
       </c>
       <c r="J8">
-        <v>9.704957405539409</v>
+        <v>6.454831402120549</v>
       </c>
       <c r="K8">
-        <v>12.65491050506481</v>
+        <v>11.9332668109932</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.96771820340764</v>
+        <v>14.53348528905206</v>
       </c>
       <c r="C9">
-        <v>9.09779014578222</v>
+        <v>11.65532889794756</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.29076268597338</v>
+        <v>17.40101745492219</v>
       </c>
       <c r="F9">
-        <v>49.14410006780663</v>
+        <v>48.88297514613794</v>
       </c>
       <c r="G9">
-        <v>3.702161502955934</v>
+        <v>2.109160134947448</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30.09795898660172</v>
+        <v>26.55626443196602</v>
       </c>
       <c r="J9">
-        <v>9.681469308408712</v>
+        <v>6.50795059756125</v>
       </c>
       <c r="K9">
-        <v>12.95710286530978</v>
+        <v>13.91939784331953</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.30023557975496</v>
+        <v>15.9339975179721</v>
       </c>
       <c r="C10">
-        <v>9.409957829674656</v>
+        <v>12.81551360424614</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.56264900599317</v>
+        <v>19.11060629089277</v>
       </c>
       <c r="F10">
-        <v>49.84354764463671</v>
+        <v>52.45658029081777</v>
       </c>
       <c r="G10">
-        <v>3.697452318191553</v>
+        <v>2.093554752625983</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.26531500407059</v>
+        <v>27.55581027059247</v>
       </c>
       <c r="J10">
-        <v>9.669449275485299</v>
+        <v>6.564694580413708</v>
       </c>
       <c r="K10">
-        <v>13.19180111940954</v>
+        <v>15.25593395731572</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.45219993935236</v>
+        <v>16.54400162628531</v>
       </c>
       <c r="C11">
-        <v>9.551354391617741</v>
+        <v>13.32497628337597</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.69055414269653</v>
+        <v>19.85781675488922</v>
       </c>
       <c r="F11">
-        <v>50.17099476288347</v>
+        <v>54.06857583656034</v>
       </c>
       <c r="G11">
-        <v>3.695406493348822</v>
+        <v>2.086504362967506</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>30.34602272713071</v>
+        <v>28.02673328280731</v>
       </c>
       <c r="J11">
-        <v>9.665121853919846</v>
+        <v>6.594885767096022</v>
       </c>
       <c r="K11">
-        <v>13.30089293603792</v>
+        <v>15.83900761459256</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.50978397921362</v>
+        <v>16.7712479123075</v>
       </c>
       <c r="C12">
-        <v>9.604753897203635</v>
+        <v>13.51540559507419</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.73955026732317</v>
+        <v>20.13661021809066</v>
       </c>
       <c r="F12">
-        <v>50.29623770824637</v>
+        <v>54.67711520487701</v>
       </c>
       <c r="G12">
-        <v>3.694645563601406</v>
+        <v>2.083838041549434</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>30.37723520700087</v>
+        <v>28.20752855799916</v>
       </c>
       <c r="J12">
-        <v>9.663647429859941</v>
+        <v>6.606996145947193</v>
       </c>
       <c r="K12">
-        <v>13.34250070110444</v>
+        <v>16.05637315306463</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.49738148812144</v>
+        <v>16.72247059586965</v>
       </c>
       <c r="C13">
-        <v>9.593260646472645</v>
+        <v>13.47450166478858</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.72897385590066</v>
+        <v>20.0767481608325</v>
       </c>
       <c r="F13">
-        <v>50.26921039281871</v>
+        <v>54.54613681783366</v>
       </c>
       <c r="G13">
-        <v>3.694808831905656</v>
+        <v>2.08441218536869</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>30.37048425803694</v>
+        <v>28.16847893412323</v>
       </c>
       <c r="J13">
-        <v>9.66395766326295</v>
+        <v>6.604357009739485</v>
       </c>
       <c r="K13">
-        <v>13.33352711141948</v>
+        <v>16.00970963662316</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.45693699276394</v>
+        <v>16.56277155564247</v>
       </c>
       <c r="C14">
-        <v>9.555750807021933</v>
+        <v>13.34069210724986</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.69457410205575</v>
+        <v>19.88083522915004</v>
       </c>
       <c r="F14">
-        <v>50.18127411100688</v>
+        <v>54.11867770707101</v>
       </c>
       <c r="G14">
-        <v>3.695343615510815</v>
+        <v>2.086284954183547</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>30.34857761386995</v>
+        <v>28.04155711935012</v>
       </c>
       <c r="J14">
-        <v>9.664997258387084</v>
+        <v>6.595868223874309</v>
       </c>
       <c r="K14">
-        <v>13.30431029376815</v>
+        <v>15.85695826017849</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.43216676011639</v>
+        <v>16.46446766620937</v>
       </c>
       <c r="C15">
-        <v>9.532754524299733</v>
+        <v>13.25840971977169</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.67357496775398</v>
+        <v>19.76029841337499</v>
       </c>
       <c r="F15">
-        <v>50.12757023494878</v>
+        <v>53.85660509850197</v>
       </c>
       <c r="G15">
-        <v>3.695672977965943</v>
+        <v>2.08743242579746</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.3352435888915</v>
+        <v>27.96413951971175</v>
       </c>
       <c r="J15">
-        <v>9.665655441527029</v>
+        <v>6.590758344475249</v>
       </c>
       <c r="K15">
-        <v>13.28645171949062</v>
+        <v>15.7629514871029</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.29031308042531</v>
+        <v>15.89359934904485</v>
       </c>
       <c r="C16">
-        <v>9.400700054915836</v>
+        <v>12.78186204758226</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.55437116531906</v>
+        <v>19.06117950413484</v>
       </c>
       <c r="F16">
-        <v>49.82232730676699</v>
+        <v>52.35096142348753</v>
       </c>
       <c r="G16">
-        <v>3.697587950465808</v>
+        <v>2.094016201591114</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.26013200437575</v>
+        <v>27.52537170860983</v>
       </c>
       <c r="J16">
-        <v>9.6697550568885</v>
+        <v>6.562813627838408</v>
       </c>
       <c r="K16">
-        <v>13.18471532864474</v>
+        <v>15.21733986534694</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.20342497024725</v>
+        <v>15.53655067350154</v>
       </c>
       <c r="C17">
-        <v>9.319491520575736</v>
+        <v>12.48491869806112</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.48229260762448</v>
+        <v>18.62463623280249</v>
       </c>
       <c r="F17">
-        <v>49.63738293872189</v>
+        <v>51.42381493953624</v>
       </c>
       <c r="G17">
-        <v>3.698787356676981</v>
+        <v>2.098065227226457</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.21522034455111</v>
+        <v>27.2604450810364</v>
       </c>
       <c r="J17">
-        <v>9.672562359048227</v>
+        <v>6.546824694134595</v>
       </c>
       <c r="K17">
-        <v>13.12287262798243</v>
+        <v>14.87634494860334</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.15351878961106</v>
+        <v>15.32862571989449</v>
       </c>
       <c r="C18">
-        <v>9.272728310200193</v>
+        <v>12.31239161458882</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.44123521026151</v>
+        <v>18.37066334467415</v>
       </c>
       <c r="F18">
-        <v>49.53188524169911</v>
+        <v>50.88924742162124</v>
       </c>
       <c r="G18">
-        <v>3.699486302652583</v>
+        <v>2.100398922564221</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.18981965306665</v>
+        <v>27.10958411661847</v>
       </c>
       <c r="J18">
-        <v>9.674284384913246</v>
+        <v>6.538037260709037</v>
       </c>
       <c r="K18">
-        <v>13.0875235825348</v>
+        <v>14.67785784944153</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.13663528974866</v>
+        <v>15.2577819587203</v>
       </c>
       <c r="C19">
-        <v>9.256887549896328</v>
+        <v>12.25367531224793</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.42740401573034</v>
+        <v>18.28417055893003</v>
       </c>
       <c r="F19">
-        <v>49.49631882233048</v>
+        <v>50.7080289383103</v>
       </c>
       <c r="G19">
-        <v>3.69972451566795</v>
+        <v>2.101189996074848</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.18129371801826</v>
+        <v>27.05876218890132</v>
       </c>
       <c r="J19">
-        <v>9.6748858604409</v>
+        <v>6.535130831271918</v>
       </c>
       <c r="K19">
-        <v>13.07559413848924</v>
+        <v>14.61024451599262</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.21266761574241</v>
+        <v>15.57482304230322</v>
       </c>
       <c r="C20">
-        <v>9.328142336971611</v>
+        <v>12.51670724777523</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.48992439574187</v>
+        <v>18.67140401479948</v>
       </c>
       <c r="F20">
-        <v>49.65698039223665</v>
+        <v>51.5226453873362</v>
       </c>
       <c r="G20">
-        <v>3.698658738780071</v>
+        <v>2.097633728360394</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.21995668317189</v>
+        <v>27.28848899260675</v>
       </c>
       <c r="J20">
-        <v>9.672252405659727</v>
+        <v>6.548484080757638</v>
       </c>
       <c r="K20">
-        <v>13.12943326222466</v>
+        <v>14.91288720599809</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.46881596539654</v>
+        <v>16.60977953635155</v>
       </c>
       <c r="C21">
-        <v>9.566772709164438</v>
+        <v>13.38006166127869</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.70466328292047</v>
+        <v>19.93849055393087</v>
       </c>
       <c r="F21">
-        <v>50.20707001824958</v>
+        <v>54.24428284016284</v>
       </c>
       <c r="G21">
-        <v>3.695186163288532</v>
+        <v>2.085734811145245</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>30.35499454713426</v>
+        <v>28.07876898631426</v>
       </c>
       <c r="J21">
-        <v>9.664687443690314</v>
+        <v>6.598342790911158</v>
       </c>
       <c r="K21">
-        <v>13.31288421888686</v>
+        <v>15.9019168910032</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.63642026558999</v>
+        <v>17.26441045855492</v>
       </c>
       <c r="C22">
-        <v>9.721866162816802</v>
+        <v>13.92986212712291</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.84825694333314</v>
+        <v>20.74248733648589</v>
       </c>
       <c r="F22">
-        <v>50.57380532180167</v>
+        <v>56.012148410909</v>
       </c>
       <c r="G22">
-        <v>3.692996914737528</v>
+        <v>2.077976704884425</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>30.44703524510128</v>
+        <v>28.60972370726887</v>
       </c>
       <c r="J22">
-        <v>9.660700937704211</v>
+        <v>6.634903636298301</v>
       </c>
       <c r="K22">
-        <v>13.43449404337552</v>
+        <v>16.52838400141</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.54696878661717</v>
+        <v>16.91696127021538</v>
       </c>
       <c r="C23">
-        <v>9.639186982693838</v>
+        <v>13.63769376037978</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.77133638521775</v>
+        <v>20.31550448947513</v>
       </c>
       <c r="F23">
-        <v>50.37744032999862</v>
+        <v>55.06954339561774</v>
       </c>
       <c r="G23">
-        <v>3.694158039729279</v>
+        <v>2.082116917356545</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30.39756785337361</v>
+        <v>28.32496877636077</v>
       </c>
       <c r="J23">
-        <v>9.662740906354831</v>
+        <v>6.615009646307667</v>
       </c>
       <c r="K23">
-        <v>13.36944418293611</v>
+        <v>16.19579506241412</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.20848886468819</v>
+        <v>15.55752837855216</v>
       </c>
       <c r="C24">
-        <v>9.324231533220747</v>
+        <v>12.5023412937432</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.48647287246037</v>
+        <v>18.65026965644022</v>
       </c>
       <c r="F24">
-        <v>49.6481177937566</v>
+        <v>51.47796893854142</v>
       </c>
       <c r="G24">
-        <v>3.698716857671328</v>
+        <v>2.097828790498459</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.21781407676746</v>
+        <v>27.27580583700976</v>
       </c>
       <c r="J24">
-        <v>9.672392198988264</v>
+        <v>6.547732614729332</v>
       </c>
       <c r="K24">
-        <v>13.12646655761805</v>
+        <v>14.89637407704751</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.84630858854182</v>
+        <v>13.99280057539938</v>
       </c>
       <c r="C25">
-        <v>8.982680518452542</v>
+        <v>11.21102407297943</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.19467997166484</v>
+        <v>16.74303861018342</v>
       </c>
       <c r="F25">
-        <v>48.89529168111864</v>
+        <v>47.55503365160055</v>
       </c>
       <c r="G25">
-        <v>3.703981752036057</v>
+        <v>2.114971068537444</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>30.04043266212584</v>
+        <v>26.20178773394129</v>
       </c>
       <c r="J25">
-        <v>9.686905138933277</v>
+        <v>6.490637900119513</v>
       </c>
       <c r="K25">
-        <v>12.87298136679454</v>
+        <v>13.40417221889992</v>
       </c>
       <c r="L25">
         <v>0</v>
